--- a/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
+++ b/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\Andhikhola_working\Andhi_Khola\Andhikhola_files_for_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\01Andhikhola_working\Andhikhola\Andhi Khola Final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="monthly average" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
@@ -143,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,7 +215,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +379,7 @@
             <c:numRef>
               <c:f>'[1]All Months'!$Q$2:$Q$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.6901323178016732</c:v>
@@ -541,7 +542,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -649,8 +650,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32221633854061399"/>
-          <c:y val="5.6237487752298948E-2"/>
+          <c:x val="0.32419749766158462"/>
+          <c:y val="2.1215626147370874E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -669,10 +670,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1097232257732489"/>
-          <c:y val="0.1529718875502008"/>
-          <c:w val="0.82361360835745512"/>
-          <c:h val="0.68097316850937673"/>
+          <c:x val="9.9817263526773378E-2"/>
+          <c:y val="7.0420207594354259E-2"/>
+          <c:w val="0.84738774514361537"/>
+          <c:h val="0.76352479424143904"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -682,7 +683,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Average Monthly  Flow (1991-2022)</c:v>
+            <c:v>Average Monthly  Flow (Measured Data)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -808,7 +809,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Average Montlhy Flow (1975-1991)</c:v>
+            <c:v>Average Montlhy Flow (UFSR,2008)</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="triangle"/>
@@ -1176,16 +1177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1342,6 +1343,19 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="All Months"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1636,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>

--- a/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
+++ b/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
@@ -16,7 +16,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1178,15 +1177,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1343,19 +1342,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="All Months"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1651,7 +1637,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O2" sqref="O2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>

--- a/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
+++ b/Andhi Khola Final results/AndhiKhola Mean_monthly_flow_comparison.xlsx
@@ -17,12 +17,15 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'monthly average'!$A$1:$AL$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Tab</t>
   </si>
@@ -136,6 +139,39 @@
   </si>
   <si>
     <t>Design dishcarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>Calc. By:</t>
+  </si>
+  <si>
+    <t>CALCULATION FORM</t>
+  </si>
+  <si>
+    <t>Job No:</t>
+  </si>
+  <si>
+    <t>Chkd. By:</t>
+  </si>
+  <si>
+    <t>Job:</t>
+  </si>
+  <si>
+    <t>Drg no:</t>
+  </si>
+  <si>
+    <t>Recommended By:</t>
+  </si>
+  <si>
+    <t>Subject:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flood Frequency Analysis</t>
+  </si>
+  <si>
+    <t>Approved By:</t>
   </si>
 </sst>
 </file>
@@ -145,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +199,11 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -202,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +256,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +657,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -754,7 +812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly average'!$P$2:$P$13</c:f>
+              <c:f>'monthly average'!$P$7:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -816,7 +874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'monthly average'!$S$2:$S$13</c:f>
+              <c:f>'monthly average'!$S$7:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -895,7 +953,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'monthly average'!$T$2:$T$13</c:f>
+              <c:f>'monthly average'!$T$7:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1108,7 +1166,7 @@
           <c:x val="0.53478243683394999"/>
           <c:y val="0.21807927366610935"/>
           <c:w val="0.38943854156784619"/>
-          <c:h val="9.1777393524539022E-2"/>
+          <c:h val="0.15910407733686754"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1135,7 +1193,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1144,16 +1202,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1176,16 +1234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1206,6 +1264,213 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615017" cy="462280"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17160875" y="2889250"/>
+          <a:ext cx="1615017" cy="462280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615017" cy="462280"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17160875" y="2889250"/>
+          <a:ext cx="1615017" cy="462280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615017" cy="462280"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="603250" y="0"/>
+          <a:ext cx="1615017" cy="462280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1634,1038 +1899,1258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="1" customWidth="1"/>
+    <col min="20" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O1" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="11">
+        <f ca="1">TODAY()</f>
+        <v>44972</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11">
+        <f ca="1">TODAY()</f>
+        <v>44972</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="11">
+        <f ca="1">TODAY()</f>
+        <v>44972</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14"/>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="14"/>
+      <c r="S5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="14"/>
+      <c r="AG5" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O2" s="2" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="O7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="7">
-        <f>HLOOKUP(O2,$B$3:$M$23,21,FALSE)</f>
+      <c r="P7" s="7">
+        <f>HLOOKUP(O7,$B$8:$M$28,21,FALSE)</f>
         <v>3.7432143728626817</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S7" s="7">
         <v>3.81</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T7" s="1">
         <v>4.87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="7">
-        <f t="shared" ref="P3:P13" si="0">HLOOKUP(O3,$B$3:$M$23,21,FALSE)</f>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:P18" si="0">HLOOKUP(O8,$B$8:$M$28,21,FALSE)</f>
         <v>13.533987790962662</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S8" s="7">
         <v>11.08</v>
       </c>
-      <c r="T3" s="1">
-        <f>T2</f>
+      <c r="T8" s="1">
+        <f>T7</f>
         <v>4.87</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B9" s="3">
         <v>66.576774193548388</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C9" s="3">
         <v>138.96466666666669</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D9" s="3">
         <v>49.655172413793103</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E9" s="3">
         <v>14.706896551724141</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F9" s="3">
         <v>7.8793103448275863</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G9" s="3">
         <v>4.5928571428571434</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H9" s="3">
         <v>5.739642857142857</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I9" s="3">
         <v>2.9472413793103449</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J9" s="3">
         <v>2.2003225806451612</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K9" s="3">
         <v>2.777499999999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L9" s="3">
         <v>5.464999999999999</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M9" s="3">
         <v>54.350333333333332</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
         <v>63.520622882313887</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S9" s="7">
         <v>62.56</v>
       </c>
-      <c r="T4" s="1">
-        <f t="shared" ref="T4:T13" si="1">T3</f>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:T18" si="1">T8</f>
         <v>4.87</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B10" s="3">
         <v>67.354838709677423</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C10" s="3">
         <v>75.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D10" s="3">
         <v>22.615666666666659</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E10" s="3">
         <v>23.160714285714281</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F10" s="3">
         <v>7.4399999999999977</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G10" s="3">
         <v>3.8228571428571412</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H10" s="3">
         <v>2.9951724137931039</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I10" s="3">
         <v>2.5367857142857142</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J10" s="3">
         <v>2.2126666666666668</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K10" s="3">
         <v>3.45</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L10" s="3">
         <v>43.906333333333343</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M10" s="3">
         <v>53.331290322580642</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>85.081481003886992</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S10" s="7">
         <v>100.4</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>55.107180020811668</v>
-      </c>
-      <c r="C6" s="3">
-        <v>109.3756666666667</v>
-      </c>
-      <c r="D6" s="3">
-        <v>32.731999999999992</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10.966551724137929</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5.8239285714285716</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.928620689655173</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.9907142857142861</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4.1793103448275861</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.538275862068966</v>
-      </c>
-      <c r="K6" s="3">
-        <v>4.445333333333334</v>
-      </c>
-      <c r="L6" s="3">
-        <v>13.686</v>
-      </c>
-      <c r="M6" s="3">
-        <v>36.862580645161287</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>79.305553854171833</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="7">
-        <v>74.39</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="1"/>
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>85.751290322580644</v>
-      </c>
-      <c r="C7" s="3">
-        <v>101.3636666666667</v>
-      </c>
-      <c r="D7" s="3">
-        <v>37.813793103448297</v>
-      </c>
-      <c r="E7" s="3">
-        <v>15.611034482758621</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7.7932142857142876</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.9624137931034493</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.2092857142857154</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3.3537931034482762</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.9258620689655159</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3.2539999999999991</v>
-      </c>
-      <c r="L7" s="3">
-        <v>9.7532258064516117</v>
-      </c>
-      <c r="M7" s="3">
-        <v>76.894666666666666</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>44.125541067678377</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="7">
-        <v>38.33</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="1"/>
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>101.1051612903226</v>
-      </c>
-      <c r="C8" s="3">
-        <v>68.89200000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <v>61.213666666666668</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11.27137931034482</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7.4165517241379311</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5.1374999999999984</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.291785714285715</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.4782758620689651</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.637666666666667</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.6653333333333331</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7.1656666666666649</v>
-      </c>
-      <c r="M8" s="3">
-        <v>63.519333333333343</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>13.977956968313345</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="7">
-        <v>13</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>149.710935483871</v>
-      </c>
-      <c r="C9" s="3">
-        <v>89.291800000000009</v>
-      </c>
-      <c r="D9" s="3">
-        <v>68.743885559477405</v>
-      </c>
-      <c r="E9" s="3">
-        <v>15.48941410455447</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7.2666658774978039</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4.7260094428051964</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.514929160276993</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2.9233275691646701</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.8366</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.6501231996671408</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5.0839649604135282</v>
-      </c>
-      <c r="M9" s="3">
-        <v>69.624565195832176</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="0"/>
-        <v>7.044677017184517</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="7">
-        <v>6.87</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>140.2317051254457</v>
-      </c>
-      <c r="C10" s="3">
-        <v>158.8041590218495</v>
-      </c>
-      <c r="D10" s="3">
-        <v>52.484857839334161</v>
-      </c>
-      <c r="E10" s="3">
-        <v>14.264388388231531</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7.6046827948598317</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4.1884657951731032</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3.033500000000001</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.7159457160206801</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1.9737931034482761</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3.3137632262452978</v>
-      </c>
-      <c r="L10" s="3">
-        <v>17.821347092836909</v>
-      </c>
-      <c r="M10" s="3">
-        <v>89.657448206999533</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="0"/>
-        <v>4.5678198147452145</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="7">
-        <v>5.01</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="1"/>
         <v>4.87</v>
       </c>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>111.1980334870583</v>
+        <v>55.107180020811668</v>
       </c>
       <c r="C11" s="3">
-        <v>78.892382704799033</v>
+        <v>109.3756666666667</v>
       </c>
       <c r="D11" s="3">
-        <v>63.280527700617192</v>
+        <v>32.731999999999992</v>
       </c>
       <c r="E11" s="3">
-        <v>12.99446304695476</v>
+        <v>10.966551724137929</v>
       </c>
       <c r="F11" s="3">
-        <v>7.4193799428620064</v>
+        <v>5.8239285714285716</v>
       </c>
       <c r="G11" s="3">
-        <v>4.7243886769835157</v>
+        <v>3.928620689655173</v>
       </c>
       <c r="H11" s="3">
-        <v>3.7308172463452611</v>
+        <v>2.9907142857142861</v>
       </c>
       <c r="I11" s="3">
-        <v>2.9859386894491</v>
+        <v>4.1793103448275861</v>
       </c>
       <c r="J11" s="3">
-        <v>2.964004205035546</v>
+        <v>2.538275862068966</v>
       </c>
       <c r="K11" s="3">
-        <v>3.1172206535950409</v>
+        <v>4.445333333333334</v>
       </c>
       <c r="L11" s="3">
-        <v>4.8157106113790578</v>
+        <v>13.686</v>
       </c>
       <c r="M11" s="3">
-        <v>104.68622931226849</v>
+        <v>36.862580645161287</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>4.0155436312063815</v>
+        <v>79.305553854171833</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S11" s="7">
-        <v>4.01</v>
+        <v>74.39</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="1"/>
         <v>4.87</v>
       </c>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>117.6705648943469</v>
+        <v>85.751290322580644</v>
       </c>
       <c r="C12" s="3">
-        <v>81.164045142856722</v>
+        <v>101.3636666666667</v>
       </c>
       <c r="D12" s="3">
-        <v>46.965828604143553</v>
+        <v>37.813793103448297</v>
       </c>
       <c r="E12" s="3">
-        <v>11.018978852625249</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>15.611034482758621</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.7932142857142876</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.9624137931034493</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4.2092857142857154</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.3537931034482762</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.9258620689655159</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.2539999999999991</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9.7532258064516117</v>
+      </c>
+      <c r="M12" s="3">
+        <v>76.894666666666666</v>
+      </c>
       <c r="O12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>3.1427798650013723</v>
+        <v>44.125541067678377</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S12" s="7">
-        <v>3.35</v>
+        <v>38.33</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="1"/>
         <v>4.87</v>
       </c>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>101.1051612903226</v>
+      </c>
+      <c r="C13" s="3">
+        <v>68.89200000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>61.213666666666668</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11.27137931034482</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7.4165517241379311</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.1374999999999984</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.291785714285715</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.4782758620689651</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.637666666666667</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.6653333333333331</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7.1656666666666649</v>
+      </c>
+      <c r="M13" s="3">
+        <v>63.519333333333343</v>
+      </c>
       <c r="O13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>2.493791457085123</v>
+        <v>13.977956968313345</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S13" s="7">
-        <v>2.63</v>
+        <v>13</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="1"/>
         <v>4.87</v>
       </c>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AH13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>149.710935483871</v>
+      </c>
+      <c r="C14" s="3">
+        <v>89.291800000000009</v>
+      </c>
+      <c r="D14" s="3">
+        <v>68.743885559477405</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15.48941410455447</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.2666658774978039</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4.7260094428051964</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.514929160276993</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.9233275691646701</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.8366</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.6501231996671408</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.0839649604135282</v>
+      </c>
+      <c r="M14" s="3">
+        <v>69.624565195832176</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>7.044677017184517</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="7">
+        <v>6.87</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="14"/>
+      <c r="AH14" s="10"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>140.2317051254457</v>
+      </c>
+      <c r="C15" s="3">
+        <v>158.8041590218495</v>
+      </c>
+      <c r="D15" s="3">
+        <v>52.484857839334161</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14.264388388231531</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.6046827948598317</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.1884657951731032</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.033500000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.7159457160206801</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.9737931034482761</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.3137632262452978</v>
+      </c>
+      <c r="L15" s="3">
+        <v>17.821347092836909</v>
+      </c>
+      <c r="M15" s="3">
+        <v>89.657448206999533</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5678198147452145</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="7">
+        <v>5.01</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>111.1980334870583</v>
+      </c>
+      <c r="C16" s="3">
+        <v>78.892382704799033</v>
+      </c>
+      <c r="D16" s="3">
+        <v>63.280527700617192</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12.99446304695476</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.4193799428620064</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.7243886769835157</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.7308172463452611</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2.9859386894491</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.964004205035546</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3.1172206535950409</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.8157106113790578</v>
+      </c>
+      <c r="M16" s="3">
+        <v>104.68622931226849</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0155436312063815</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="7">
+        <v>4.01</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117.6705648943469</v>
+      </c>
+      <c r="C17" s="3">
+        <v>81.164045142856722</v>
+      </c>
+      <c r="D17" s="3">
+        <v>46.965828604143553</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11.018978852625249</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1427798650013723</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="O18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.493791457085123</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="7">
+        <v>2.63</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>2.92625</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K19" s="3">
         <v>4.0402320991887732</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L19" s="3">
         <v>10.18660468926463</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M19" s="3">
         <v>29.112827485235862</v>
       </c>
+      <c r="O19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1">
+        <f>AVERAGEA(P7:P18)</f>
+        <v>27.046080810451034</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="1">
+        <f>AVERAGEA(S7:S18)</f>
+        <v>27.12</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B20" s="3">
         <v>56.722253077611242</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C20" s="3">
         <v>58.297072504302307</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D20" s="3">
         <v>17.836709370073599</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E20" s="3">
         <v>7.7417289113807488</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F20" s="3">
         <v>5.1974053581375941</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G20" s="3">
         <v>3.837241379310345</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H20" s="3">
         <v>3.3489285714285719</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I20" s="3">
         <v>2.6048275862068961</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J20" s="3">
         <v>2.1444827586206898</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K20" s="3">
         <v>1.9287742020083489</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L20" s="3">
         <v>9.615231257263364</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M20" s="3">
         <v>73.200202846758842</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B21" s="3">
         <v>114.5402163486068</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C21" s="3">
         <v>55.925051713060718</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D21" s="3">
         <v>54.79103887591009</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E21" s="3">
         <v>14.499613271521691</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F21" s="3">
         <v>6.3538269489189139</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G21" s="3">
         <v>4.4160180357142957</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H21" s="3">
         <v>3.7784792857142731</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I21" s="3">
         <v>2.912123793103305</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J21" s="3">
         <v>3.052947767670962</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K21" s="3">
         <v>3.8775157376742428</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L21" s="3">
         <v>10.442263001621511</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M21" s="3">
         <v>66.514872692540564</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B22" s="3">
         <v>75.384219305638425</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C22" s="3">
         <v>63.297807709934737</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D22" s="3">
         <v>30.146979505512501</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E22" s="3">
         <v>8.1650916336102011</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F22" s="3">
         <v>5.0463035063372086</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G22" s="3">
         <v>3.7762225389200972</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H22" s="3">
         <v>3.156774316290142</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I22" s="3">
         <v>2.748411499999992</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J22" s="3">
         <v>2.6105808333333389</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K22" s="3">
         <v>4.3116006207448034</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L22" s="3">
         <v>9.3490176133060388</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M22" s="3">
         <v>41.926250990458527</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B23" s="3">
         <v>55.856877820900579</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C23" s="3">
         <v>36.301017620293109</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D23" s="3">
         <v>20.24942911348079</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E23" s="3">
         <v>6.8840162576385939</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F23" s="3">
         <v>4.6915891744913871</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G23" s="3">
         <v>3.4000978054005588</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>3.3080315000000118</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J23" s="3">
         <v>2.9096709747000622</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K23" s="3">
         <v>6.4863571180002841</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L23" s="3">
         <v>14.90803804318691</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M23" s="3">
         <v>55.887100557168459</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B24" s="3">
         <v>42.283232434553817</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C24" s="3">
         <v>45.00780557238599</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D24" s="3">
         <v>34.607074501018829</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E24" s="3">
         <v>12.949348629235031</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F24" s="3">
         <v>10.01535598318563</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G24" s="3">
         <v>9.2833493141331829</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H24" s="3">
         <v>8.9095651408804155</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I24" s="3">
         <v>5.0423401666666896</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J24" s="3">
         <v>3.285055478546131</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K24" s="3">
         <v>6.5899147542627814</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L24" s="3">
         <v>14.90803804318691</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M24" s="3">
         <v>55.526826726592184</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B25" s="3">
         <v>77.852483327649111</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C25" s="3">
         <v>61.705094403235208</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D25" s="3">
         <v>50.138414547038629</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E25" s="3">
         <v>8.7351067077167635</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>3.6543142589043982</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H25" s="3">
         <v>3.0200833585675162</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I25" s="3">
         <v>2.644820080789732</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J25" s="3">
         <v>1.819524543982016</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K25" s="3">
         <v>3.182863686396801</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L25" s="3">
         <v>16.403276908618398</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M25" s="3">
         <v>80.598511428738163</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B26" s="3">
         <v>63.629744623229023</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C26" s="3">
         <v>68.177739008851319</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D26" s="3">
         <v>46.769628539300108</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E26" s="3">
         <v>31.446905652898842</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F26" s="3">
         <v>8.7755237085340383</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G26" s="3">
         <v>3.7530967004271991</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H26" s="3">
         <v>4.4979327721644848</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I26" s="3">
         <v>3.7605249696786198</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J26" s="3">
         <v>2.8629598030119712</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K26" s="3">
         <v>4.8008980013527296</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L26" s="3">
         <v>23.034086627873702</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M26" s="3">
         <v>64.636926373354086</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B27" s="3">
         <v>65.409666600227467</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C27" s="3">
         <v>57.534440119352503</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D27" s="3">
         <v>60.089525144050747</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E27" s="3">
         <v>17.719636650279181</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F27" s="3">
         <v>6.9464170368349656</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G27" s="3">
         <v>4.8816643196786522</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6">
-        <f>AVERAGE(B4:B22)</f>
+      <c r="B28" s="6">
+        <f>AVERAGE(B9:B27)</f>
         <v>85.081481003886992</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:M23" si="2">AVERAGE(C4:C22)</f>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:M28" si="2">AVERAGE(C9:C27)</f>
         <v>79.305553854171833</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D28" s="6">
         <f t="shared" si="2"/>
         <v>44.125541067678377</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E28" s="6">
         <f t="shared" si="2"/>
         <v>13.977956968313345</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>7.044677017184517</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G28" s="6">
         <f t="shared" si="2"/>
         <v>4.5678198147452145</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>4.0155436312063815</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I28" s="6">
         <f t="shared" si="2"/>
         <v>3.1427798650013723</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J28" s="6">
         <f t="shared" si="2"/>
         <v>2.493791457085123</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K28" s="6">
         <f t="shared" si="2"/>
         <v>3.7432143728626817</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L28" s="6">
         <f t="shared" si="2"/>
         <v>13.533987790962662</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M28" s="6">
         <f t="shared" si="2"/>
         <v>63.520622882313887</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>